--- a/data/N.xlsx
+++ b/data/N.xlsx
@@ -405,7 +405,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.9998696249534189</v>
+        <v>0.9999829155133751</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -413,7 +413,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.9999315567310795</v>
+        <v>0.9999723639895992</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -421,7 +421,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.9999005908422491</v>
+        <v>0.9999776397514872</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -429,7 +429,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2.484357118606567</v>
+        <v>1.536486625671387</v>
       </c>
     </row>
   </sheetData>

--- a/data/N.xlsx
+++ b/data/N.xlsx
@@ -405,7 +405,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.9999829155133751</v>
+        <v>0.9999807562895613</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -413,7 +413,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.9999723639895992</v>
+        <v>0.9999576749252965</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -421,7 +421,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.9999776397514872</v>
+        <v>0.9999692156074289</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -429,7 +429,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1.536486625671387</v>
+        <v>59.22110414505005</v>
       </c>
     </row>
   </sheetData>
